--- a/coin.xlsx
+++ b/coin.xlsx
@@ -19,52 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
-  <si>
-    <t>이상준</t>
-  </si>
-  <si>
-    <t>321293631464144896</t>
-  </si>
-  <si>
-    <t>류승하</t>
-  </si>
-  <si>
-    <t>536388176688840715</t>
-  </si>
-  <si>
-    <t>김헌유</t>
-  </si>
-  <si>
-    <t>307497937296949248</t>
-  </si>
-  <si>
-    <t>공태인</t>
-  </si>
-  <si>
-    <t>606297925923897404</t>
-  </si>
-  <si>
-    <t>김관우</t>
-  </si>
-  <si>
-    <t>276945324088623104</t>
-  </si>
-  <si>
-    <t>박재성</t>
-  </si>
-  <si>
-    <t>331285782104899616</t>
-  </si>
-  <si>
-    <t>김대훈</t>
-  </si>
-  <si>
-    <t>394784653602455562</t>
-  </si>
-  <si>
-    <t>성빈</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="1">
   <si>
     <t>_</t>
   </si>
@@ -391,10 +346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="B1:B100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -402,202 +357,504 @@
     <col min="1" max="1" width="12.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1">
-        <v>3.76002776351768E+17</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>15</v>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B86" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B90" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B91" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B92" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B93" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B94" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B95" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B99" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B100" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/coin.xlsx
+++ b/coin.xlsx
@@ -420,7 +420,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>10000</v>
+        <v>9750</v>
       </c>
     </row>
     <row r="2">

--- a/coin.xlsx
+++ b/coin.xlsx
@@ -420,7 +420,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>9750</v>
+        <v>10299</v>
       </c>
     </row>
     <row r="2">

--- a/coin.xlsx
+++ b/coin.xlsx
@@ -424,10 +424,18 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>류승하</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>_</t>
-        </is>
+          <t>321293631464144896</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="3">

--- a/coin.xlsx
+++ b/coin.xlsx
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1230</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,18 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>공태인</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>_</t>
-        </is>
+          <t>307497937296949248</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>360</v>
       </c>
     </row>
     <row r="8">

--- a/coin.xlsx
+++ b/coin.xlsx
@@ -420,7 +420,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>10090</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1410</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>312</v>
+        <v>9248</v>
       </c>
     </row>
     <row r="7">
@@ -510,14 +510,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>STIMPACK</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>_</t>
-        </is>
+          <t>358894307547283458</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="9">

--- a/coin.xlsx
+++ b/coin.xlsx
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3">
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>128</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4">
@@ -525,14 +525,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>83</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>김대훈</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>_</t>
-        </is>
+          <t>331285782104899616</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1096</v>
       </c>
     </row>
     <row r="10">

--- a/coin.xlsx
+++ b/coin.xlsx
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>155</v>
+        <v>5323</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>274</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9">
@@ -540,14 +540,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>박영준</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>_</t>
-        </is>
+          <t>789700291804659712</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3235</v>
       </c>
     </row>
     <row r="11">

--- a/coin.xlsx
+++ b/coin.xlsx
@@ -420,7 +420,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>140</v>
+        <v>97300</v>
       </c>
     </row>
     <row r="2">
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>217</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5323</v>
+        <v>5392</v>
       </c>
     </row>
     <row r="6">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9248</v>
+        <v>8830</v>
       </c>
     </row>
     <row r="7">

--- a/coin.xlsx
+++ b/coin.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1147</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="5">

--- a/coin.xlsx
+++ b/coin.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1228</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5">

--- a/coin.xlsx
+++ b/coin.xlsx
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3">
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>346</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1518</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>122</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10">
@@ -555,14 +555,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3235</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>김헌유</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>_</t>
-        </is>
+          <t>536388176688840715</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="12">

--- a/coin.xlsx
+++ b/coin.xlsx
@@ -420,7 +420,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>97300</v>
+        <v>72990</v>
       </c>
     </row>
     <row r="2">

--- a/coin.xlsx
+++ b/coin.xlsx
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>113</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3">
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>294</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5">

--- a/coin.xlsx
+++ b/coin.xlsx
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>457</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12">

--- a/coin.xlsx
+++ b/coin.xlsx
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>492</v>
+        <v>750</v>
       </c>
     </row>
     <row r="4">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>194</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12">

--- a/coin.xlsx
+++ b/coin.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="25">
   <si>
     <t>이상준</t>
   </si>
@@ -87,15 +87,13 @@
     <t>536388176688840715</t>
   </si>
   <si>
+    <t>이권민</t>
+  </si>
+  <si>
+    <t>388682738858721282</t>
+  </si>
+  <si>
     <t>_</t>
-  </si>
-  <si>
-    <t>이권민</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>388682738858721000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -138,9 +136,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -421,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -556,453 +553,448 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C12">
-        <v>100</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B72" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B76" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B79" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B80" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B81" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B82" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B83" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B84" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B85" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B86" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B87" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B88" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B89" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B90" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B91" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B92" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B93" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B94" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B95" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B96" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B97" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B98" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B99" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B100" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
